--- a/wide/synthetic_dataset_19.xlsx
+++ b/wide/synthetic_dataset_19.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>not a date</t>
+    <t>soon</t>
   </si>
   <si>
-    <t>soon</t>
+    <t>not a date</t>
   </si>
 </sst>
 </file>
@@ -383,605 +383,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:37">
       <c r="A1" s="1">
-        <v>45883</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45890</v>
+        <v>45945</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>45897</v>
+        <v>45959</v>
       </c>
       <c r="D1" s="1">
-        <v>45904</v>
+        <v>45966</v>
       </c>
       <c r="E1" s="1">
-        <v>45911</v>
+        <v>45973</v>
       </c>
       <c r="F1" s="1">
-        <v>45918</v>
+        <v>45980</v>
       </c>
       <c r="G1" s="1">
-        <v>45925</v>
+        <v>45987</v>
       </c>
       <c r="H1" s="1">
-        <v>45932</v>
+        <v>45994</v>
       </c>
       <c r="I1" s="1">
-        <v>45939</v>
+        <v>46001</v>
       </c>
       <c r="J1" s="1">
-        <v>45946</v>
+        <v>46008</v>
       </c>
       <c r="K1" s="1">
-        <v>45953</v>
+        <v>46015</v>
       </c>
       <c r="L1" s="1">
-        <v>45960</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
+        <v>46022</v>
+      </c>
+      <c r="M1" s="1">
+        <v>46029</v>
+      </c>
+      <c r="N1" s="1">
+        <v>46036</v>
       </c>
       <c r="O1" s="1">
-        <v>45981</v>
+        <v>46043</v>
       </c>
       <c r="P1" s="1">
-        <v>45988</v>
+        <v>46050</v>
       </c>
       <c r="Q1" s="1">
-        <v>45995</v>
+        <v>46057</v>
       </c>
       <c r="R1" s="1">
-        <v>46002</v>
+        <v>46064</v>
       </c>
       <c r="S1" s="1">
-        <v>46009</v>
+        <v>46071</v>
       </c>
       <c r="T1" s="1">
-        <v>46016</v>
-      </c>
-      <c r="U1" s="1">
-        <v>46023</v>
-      </c>
-      <c r="V1" s="1">
-        <v>46030</v>
+        <v>46078</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="W1" s="1">
-        <v>46037</v>
+        <v>46099</v>
       </c>
       <c r="X1" s="1">
-        <v>46044</v>
+        <v>46106</v>
       </c>
       <c r="Y1" s="1">
-        <v>46051</v>
+        <v>46113</v>
       </c>
       <c r="Z1" s="1">
-        <v>46058</v>
+        <v>46120</v>
       </c>
       <c r="AA1" s="1">
-        <v>46065</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>0</v>
+        <v>46127</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>46134</v>
       </c>
       <c r="AC1" s="1">
-        <v>46079</v>
+        <v>46141</v>
       </c>
       <c r="AD1" s="1">
-        <v>46086</v>
+        <v>46148</v>
       </c>
       <c r="AE1" s="1">
-        <v>46093</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>46100</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+        <v>46155</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="AG1" s="1">
+        <v>46169</v>
+      </c>
       <c r="AH1" s="1">
-        <v>46114</v>
+        <v>46176</v>
       </c>
       <c r="AI1" s="1">
-        <v>46121</v>
+        <v>46183</v>
       </c>
       <c r="AJ1" s="1">
-        <v>46128</v>
+        <v>46190</v>
       </c>
       <c r="AK1" s="1">
-        <v>46135</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>46142</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>46149</v>
+        <v>46197</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:37">
       <c r="A2">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="B2">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C2">
+        <v>133</v>
+      </c>
+      <c r="D2">
+        <v>141</v>
+      </c>
+      <c r="E2">
+        <v>149</v>
+      </c>
+      <c r="F2">
+        <v>132</v>
+      </c>
+      <c r="G2">
+        <v>82</v>
+      </c>
+      <c r="H2">
+        <v>101</v>
+      </c>
+      <c r="I2">
+        <v>198</v>
+      </c>
+      <c r="J2">
+        <v>155</v>
+      </c>
+      <c r="K2">
+        <v>134</v>
+      </c>
+      <c r="L2">
+        <v>51</v>
+      </c>
+      <c r="M2">
+        <v>155</v>
+      </c>
+      <c r="N2">
+        <v>62</v>
+      </c>
+      <c r="O2">
+        <v>175</v>
+      </c>
+      <c r="P2">
+        <v>83</v>
+      </c>
+      <c r="Q2">
+        <v>112</v>
+      </c>
+      <c r="R2">
+        <v>190</v>
+      </c>
+      <c r="S2">
+        <v>183</v>
+      </c>
+      <c r="T2">
+        <v>56</v>
+      </c>
+      <c r="U2">
+        <v>81</v>
+      </c>
+      <c r="V2">
+        <v>197</v>
+      </c>
+      <c r="W2">
+        <v>121</v>
+      </c>
+      <c r="X2">
+        <v>83</v>
+      </c>
+      <c r="Y2">
+        <v>133</v>
+      </c>
+      <c r="Z2">
+        <v>123</v>
+      </c>
+      <c r="AA2">
+        <v>85</v>
+      </c>
+      <c r="AB2">
+        <v>125</v>
+      </c>
+      <c r="AC2">
+        <v>170</v>
+      </c>
+      <c r="AD2">
+        <v>116</v>
+      </c>
+      <c r="AE2">
+        <v>145</v>
+      </c>
+      <c r="AF2">
+        <v>51</v>
+      </c>
+      <c r="AG2">
+        <v>92</v>
+      </c>
+      <c r="AH2">
+        <v>145</v>
+      </c>
+      <c r="AI2">
+        <v>168</v>
+      </c>
+      <c r="AJ2">
+        <v>198</v>
+      </c>
+      <c r="AK2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>8</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>148</v>
+      </c>
+      <c r="E4">
+        <v>158</v>
+      </c>
+      <c r="F4">
+        <v>170</v>
+      </c>
+      <c r="G4">
+        <v>179</v>
+      </c>
+      <c r="H4">
+        <v>86</v>
+      </c>
+      <c r="I4">
+        <v>159</v>
+      </c>
+      <c r="J4">
+        <v>166</v>
+      </c>
+      <c r="K4">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>158</v>
+      </c>
+      <c r="M4">
+        <v>175</v>
+      </c>
+      <c r="N4">
+        <v>82</v>
+      </c>
+      <c r="O4">
         <v>65</v>
       </c>
-      <c r="D2">
+      <c r="P4">
         <v>192</v>
       </c>
-      <c r="E2">
-        <v>195</v>
-      </c>
-      <c r="F2">
-        <v>191</v>
-      </c>
-      <c r="G2">
-        <v>61</v>
-      </c>
-      <c r="H2">
-        <v>186</v>
-      </c>
-      <c r="I2">
+      <c r="Q4">
         <v>80</v>
       </c>
-      <c r="J2">
-        <v>153</v>
-      </c>
-      <c r="K2">
-        <v>169</v>
-      </c>
-      <c r="L2">
-        <v>64</v>
-      </c>
-      <c r="M2">
-        <v>175</v>
-      </c>
-      <c r="N2">
-        <v>67</v>
-      </c>
-      <c r="O2">
-        <v>84</v>
-      </c>
-      <c r="P2">
-        <v>185</v>
-      </c>
-      <c r="Q2">
-        <v>106</v>
-      </c>
-      <c r="R2">
+      <c r="R4">
+        <v>192</v>
+      </c>
+      <c r="S4">
         <v>60</v>
       </c>
-      <c r="S2">
-        <v>182</v>
-      </c>
-      <c r="T2">
-        <v>191</v>
-      </c>
-      <c r="U2">
-        <v>139</v>
-      </c>
-      <c r="V2">
-        <v>174</v>
-      </c>
-      <c r="W2">
+      <c r="T4">
+        <v>144</v>
+      </c>
+      <c r="U4">
         <v>60</v>
       </c>
-      <c r="X2">
-        <v>192</v>
-      </c>
-      <c r="Y2">
-        <v>198</v>
-      </c>
-      <c r="Z2">
-        <v>198</v>
-      </c>
-      <c r="AA2">
-        <v>146</v>
-      </c>
-      <c r="AB2">
-        <v>187</v>
-      </c>
-      <c r="AC2">
-        <v>192</v>
-      </c>
-      <c r="AD2">
-        <v>86</v>
-      </c>
-      <c r="AE2">
-        <v>97</v>
-      </c>
-      <c r="AF2">
-        <v>61</v>
-      </c>
-      <c r="AG2">
-        <v>64</v>
-      </c>
-      <c r="AH2">
-        <v>93</v>
-      </c>
-      <c r="AI2">
-        <v>96</v>
-      </c>
-      <c r="AJ2">
-        <v>164</v>
-      </c>
-      <c r="AK2">
-        <v>148</v>
-      </c>
-      <c r="AL2">
-        <v>75</v>
-      </c>
-      <c r="AM2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="S3">
-        <v>8</v>
-      </c>
-      <c r="T3">
-        <v>9</v>
-      </c>
-      <c r="U3">
-        <v>9</v>
-      </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3">
-        <v>7</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>9</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>6</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>10</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>7</v>
-      </c>
-      <c r="AH3">
-        <v>5</v>
-      </c>
-      <c r="AI3">
-        <v>8</v>
-      </c>
-      <c r="AJ3">
-        <v>4</v>
-      </c>
-      <c r="AK3">
-        <v>8</v>
-      </c>
-      <c r="AL3">
-        <v>9</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4">
-        <v>72</v>
-      </c>
-      <c r="B4">
-        <v>116</v>
-      </c>
-      <c r="C4">
-        <v>190</v>
-      </c>
-      <c r="D4">
-        <v>171</v>
-      </c>
-      <c r="E4">
-        <v>166</v>
-      </c>
-      <c r="F4">
-        <v>114</v>
-      </c>
-      <c r="G4">
-        <v>94</v>
-      </c>
-      <c r="H4">
-        <v>152</v>
-      </c>
-      <c r="I4">
-        <v>116</v>
-      </c>
-      <c r="J4">
-        <v>181</v>
-      </c>
-      <c r="K4">
-        <v>125</v>
-      </c>
-      <c r="L4">
-        <v>66</v>
-      </c>
-      <c r="M4">
-        <v>155</v>
-      </c>
-      <c r="N4">
-        <v>51</v>
-      </c>
-      <c r="O4">
-        <v>173</v>
-      </c>
-      <c r="P4">
-        <v>133</v>
-      </c>
-      <c r="Q4">
-        <v>85</v>
-      </c>
-      <c r="R4">
-        <v>80</v>
-      </c>
-      <c r="S4">
-        <v>87</v>
-      </c>
-      <c r="T4">
-        <v>184</v>
-      </c>
-      <c r="U4">
-        <v>92</v>
-      </c>
       <c r="V4">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="W4">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="X4">
         <v>67</v>
       </c>
       <c r="Y4">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="Z4">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="AA4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB4">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AC4">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="AD4">
         <v>147</v>
       </c>
       <c r="AE4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF4">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="AG4">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="AH4">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="AI4">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="AJ4">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="AK4">
-        <v>138</v>
-      </c>
-      <c r="AL4">
-        <v>148</v>
-      </c>
-      <c r="AM4">
-        <v>200</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:37">
       <c r="A5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
         <v>5</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-      <c r="T5">
-        <v>6</v>
-      </c>
-      <c r="U5">
-        <v>9</v>
-      </c>
-      <c r="V5">
+      <c r="AC5">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>9</v>
-      </c>
-      <c r="AA5">
-        <v>7</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
       <c r="AD5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK5">
-        <v>6</v>
-      </c>
-      <c r="AL5">
-        <v>3</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
